--- a/Data collection/Gaps_Insights.xlsx
+++ b/Data collection/Gaps_Insights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15116C4C-680A-5947-B708-7F3F424E7B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6427721E-45E2-E543-9A19-398757EA803D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="2" xr2:uid="{4AC15D77-A546-3547-A2C3-EEAA1142FFBB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="3" xr2:uid="{4AC15D77-A546-3547-A2C3-EEAA1142FFBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Gap 1" sheetId="1" r:id="rId1"/>
@@ -958,7 +958,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -983,10 +983,9 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2173,55 +2172,55 @@
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A104" s="22"/>
-      <c r="B104" s="22"/>
+      <c r="A104" s="24"/>
+      <c r="B104" s="24"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
-      <c r="E104" s="22"/>
-      <c r="F104" s="22"/>
+      <c r="E104" s="24"/>
+      <c r="F104" s="24"/>
       <c r="G104" s="1"/>
       <c r="R104" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A105" s="22"/>
-      <c r="B105" s="22"/>
-      <c r="E105" s="22"/>
-      <c r="F105" s="22"/>
+      <c r="A105" s="24"/>
+      <c r="B105" s="24"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="24"/>
       <c r="R105" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A106" s="22"/>
-      <c r="B106" s="22"/>
+      <c r="A106" s="24"/>
+      <c r="B106" s="24"/>
       <c r="C106" s="1"/>
-      <c r="E106" s="22"/>
-      <c r="F106" s="22"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="24"/>
       <c r="G106" s="1"/>
       <c r="R106" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A107" s="22"/>
-      <c r="B107" s="22"/>
+      <c r="A107" s="24"/>
+      <c r="B107" s="24"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
-      <c r="E107" s="22"/>
-      <c r="F107" s="22"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="24"/>
       <c r="R107" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A108" s="22"/>
-      <c r="B108" s="22"/>
+      <c r="A108" s="24"/>
+      <c r="B108" s="24"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
-      <c r="E108" s="22"/>
-      <c r="F108" s="22"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="24"/>
       <c r="G108" s="1"/>
       <c r="R108" t="s">
         <v>127</v>
@@ -3182,7 +3181,7 @@
       <c r="D177" s="21"/>
       <c r="E177" s="21"/>
       <c r="F177" s="21"/>
-      <c r="G177" s="24"/>
+      <c r="G177" s="22"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="21"/>
@@ -3191,7 +3190,7 @@
       <c r="D178" s="21"/>
       <c r="E178" s="21"/>
       <c r="F178" s="21"/>
-      <c r="G178" s="24"/>
+      <c r="G178" s="22"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="21"/>
@@ -3324,141 +3323,145 @@
     <sortCondition ref="A25:A53"/>
   </sortState>
   <mergeCells count="298">
-    <mergeCell ref="G189:G190"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="C191:C192"/>
-    <mergeCell ref="D191:D192"/>
-    <mergeCell ref="E191:E192"/>
-    <mergeCell ref="F191:F192"/>
-    <mergeCell ref="G191:G192"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="D189:D190"/>
-    <mergeCell ref="E189:E190"/>
-    <mergeCell ref="F189:F190"/>
-    <mergeCell ref="G185:G186"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="C187:C188"/>
-    <mergeCell ref="D187:D188"/>
-    <mergeCell ref="E187:E188"/>
-    <mergeCell ref="F187:F188"/>
-    <mergeCell ref="G187:G188"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="C185:C186"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="E185:E186"/>
-    <mergeCell ref="F185:F186"/>
-    <mergeCell ref="G181:G182"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="D183:D184"/>
-    <mergeCell ref="E183:E184"/>
-    <mergeCell ref="F183:F184"/>
-    <mergeCell ref="G183:G184"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="C181:C182"/>
-    <mergeCell ref="D181:D182"/>
-    <mergeCell ref="E181:E182"/>
-    <mergeCell ref="F181:F182"/>
-    <mergeCell ref="G177:G178"/>
-    <mergeCell ref="A179:A180"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="C179:C180"/>
-    <mergeCell ref="D179:D180"/>
-    <mergeCell ref="E179:E180"/>
-    <mergeCell ref="F179:F180"/>
-    <mergeCell ref="G179:G180"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="C177:C178"/>
-    <mergeCell ref="D177:D178"/>
-    <mergeCell ref="E177:E178"/>
-    <mergeCell ref="F177:F178"/>
-    <mergeCell ref="G173:G174"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="C175:C176"/>
-    <mergeCell ref="D175:D176"/>
-    <mergeCell ref="E175:E176"/>
-    <mergeCell ref="F175:F176"/>
-    <mergeCell ref="G175:G176"/>
-    <mergeCell ref="A173:A174"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="C173:C174"/>
-    <mergeCell ref="D173:D174"/>
-    <mergeCell ref="E173:E174"/>
-    <mergeCell ref="F173:F174"/>
-    <mergeCell ref="G169:G170"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="B171:B172"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="D171:D172"/>
-    <mergeCell ref="E171:E172"/>
-    <mergeCell ref="F171:F172"/>
-    <mergeCell ref="G171:G172"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="D169:D170"/>
-    <mergeCell ref="E169:E170"/>
-    <mergeCell ref="F169:F170"/>
-    <mergeCell ref="G165:G166"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="D167:D168"/>
-    <mergeCell ref="E167:E168"/>
-    <mergeCell ref="F167:F168"/>
-    <mergeCell ref="G167:G168"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="C165:C166"/>
-    <mergeCell ref="D165:D166"/>
-    <mergeCell ref="E165:E166"/>
-    <mergeCell ref="F165:F166"/>
-    <mergeCell ref="G161:G162"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="E163:E164"/>
-    <mergeCell ref="F163:F164"/>
-    <mergeCell ref="G163:G164"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="D161:D162"/>
-    <mergeCell ref="E161:E162"/>
-    <mergeCell ref="F161:F162"/>
-    <mergeCell ref="G157:G158"/>
-    <mergeCell ref="A159:A160"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="D159:D160"/>
-    <mergeCell ref="E159:E160"/>
-    <mergeCell ref="F159:F160"/>
-    <mergeCell ref="G159:G160"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="E157:E158"/>
-    <mergeCell ref="F157:F158"/>
-    <mergeCell ref="F153:F154"/>
-    <mergeCell ref="G153:G154"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="D155:D156"/>
-    <mergeCell ref="E155:E156"/>
-    <mergeCell ref="F155:F156"/>
-    <mergeCell ref="G155:G156"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="D135:D136"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="F133:F134"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="F139:F140"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="F137:F138"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="B104:B108"/>
+    <mergeCell ref="E104:E108"/>
+    <mergeCell ref="F104:F108"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="G137:G138"/>
+    <mergeCell ref="G139:G140"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="G129:G130"/>
     <mergeCell ref="G143:G144"/>
     <mergeCell ref="G145:G146"/>
     <mergeCell ref="G147:G148"/>
@@ -3483,145 +3486,141 @@
     <mergeCell ref="F149:F150"/>
     <mergeCell ref="A147:A148"/>
     <mergeCell ref="B147:B148"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="G135:G136"/>
-    <mergeCell ref="G137:G138"/>
-    <mergeCell ref="G139:G140"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="G125:G126"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="B104:B108"/>
-    <mergeCell ref="E104:E108"/>
-    <mergeCell ref="F104:F108"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="D147:D148"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="F147:F148"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="E139:E140"/>
-    <mergeCell ref="F139:F140"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="F137:F138"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="D135:D136"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="F133:F134"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="E129:E130"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="F153:F154"/>
+    <mergeCell ref="G153:G154"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="D155:D156"/>
+    <mergeCell ref="E155:E156"/>
+    <mergeCell ref="F155:F156"/>
+    <mergeCell ref="G155:G156"/>
+    <mergeCell ref="G157:G158"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="D159:D160"/>
+    <mergeCell ref="E159:E160"/>
+    <mergeCell ref="F159:F160"/>
+    <mergeCell ref="G159:G160"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="E157:E158"/>
+    <mergeCell ref="F157:F158"/>
+    <mergeCell ref="G161:G162"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="E163:E164"/>
+    <mergeCell ref="F163:F164"/>
+    <mergeCell ref="G163:G164"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="D161:D162"/>
+    <mergeCell ref="E161:E162"/>
+    <mergeCell ref="F161:F162"/>
+    <mergeCell ref="G165:G166"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="D167:D168"/>
+    <mergeCell ref="E167:E168"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="G167:G168"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="D165:D166"/>
+    <mergeCell ref="E165:E166"/>
+    <mergeCell ref="F165:F166"/>
+    <mergeCell ref="G169:G170"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="E171:E172"/>
+    <mergeCell ref="F171:F172"/>
+    <mergeCell ref="G171:G172"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="E169:E170"/>
+    <mergeCell ref="F169:F170"/>
+    <mergeCell ref="G173:G174"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="C175:C176"/>
+    <mergeCell ref="D175:D176"/>
+    <mergeCell ref="E175:E176"/>
+    <mergeCell ref="F175:F176"/>
+    <mergeCell ref="G175:G176"/>
+    <mergeCell ref="A173:A174"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="G177:G178"/>
+    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="D179:D180"/>
+    <mergeCell ref="E179:E180"/>
+    <mergeCell ref="F179:F180"/>
+    <mergeCell ref="G179:G180"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="C177:C178"/>
+    <mergeCell ref="D177:D178"/>
+    <mergeCell ref="E177:E178"/>
+    <mergeCell ref="F177:F178"/>
+    <mergeCell ref="G181:G182"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="D183:D184"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="F183:F184"/>
+    <mergeCell ref="G183:G184"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="C181:C182"/>
+    <mergeCell ref="D181:D182"/>
+    <mergeCell ref="E181:E182"/>
+    <mergeCell ref="F181:F182"/>
+    <mergeCell ref="G185:G186"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="D187:D188"/>
+    <mergeCell ref="E187:E188"/>
+    <mergeCell ref="F187:F188"/>
+    <mergeCell ref="G187:G188"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="C185:C186"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="E185:E186"/>
+    <mergeCell ref="F185:F186"/>
+    <mergeCell ref="G189:G190"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="D191:D192"/>
+    <mergeCell ref="E191:E192"/>
+    <mergeCell ref="F191:F192"/>
+    <mergeCell ref="G191:G192"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="D189:D190"/>
+    <mergeCell ref="E189:E190"/>
+    <mergeCell ref="F189:F190"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4846,7 +4845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602F6835-4A1E-8444-A04C-457833FC4626}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -5187,10 +5186,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DE1511-DAA2-A04B-9BBF-605E5C0107B3}">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5308,7 +5307,7 @@
       <c r="O3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="P3" s="19" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5328,7 +5327,7 @@
       <c r="E4" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" t="s">
         <v>232</v>
       </c>
       <c r="G4" s="18" t="s">
@@ -5432,7 +5431,7 @@
       <c r="E8" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" t="s">
         <v>232</v>
       </c>
       <c r="G8" s="18" t="s">
@@ -5473,7 +5472,6 @@
       <c r="D9" t="s">
         <v>212</v>
       </c>
-      <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -5488,7 +5486,6 @@
       <c r="D10" t="s">
         <v>212</v>
       </c>
-      <c r="F10" s="25"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -5503,7 +5500,6 @@
       <c r="D11" t="s">
         <v>212</v>
       </c>
-      <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -5521,7 +5517,7 @@
       <c r="E12" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" t="s">
         <v>232</v>
       </c>
       <c r="G12" s="18" t="s">
@@ -5552,77 +5548,10 @@
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F13" s="25"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="25"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="25"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="25"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="25"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="25"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C40" s="25"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C41" s="25"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C42" s="25"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C43" s="25"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C44" s="25"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C45" s="25"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C46" s="25"/>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C47" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5632,6 +5561,7 @@
     <hyperlink ref="C7" r:id="rId4" xr:uid="{328654F2-53C9-2246-B06A-54AC367A4134}"/>
     <hyperlink ref="C8" r:id="rId5" xr:uid="{EC63FFE1-71E3-2E43-97F1-BFF08591664F}"/>
     <hyperlink ref="C12" r:id="rId6" xr:uid="{04D6F753-E1B3-3D48-BA7C-3C6A3AAC841C}"/>
+    <hyperlink ref="P3" r:id="rId7" xr:uid="{E303BF59-9045-4D4D-96B5-F0F628461C44}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Data collection/Gaps_Insights.xlsx
+++ b/Data collection/Gaps_Insights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6427721E-45E2-E543-9A19-398757EA803D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A58B64A-4B12-9549-822B-77BB8E9CEF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="3" xr2:uid="{4AC15D77-A546-3547-A2C3-EEAA1142FFBB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="2" xr2:uid="{4AC15D77-A546-3547-A2C3-EEAA1142FFBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Gap 1" sheetId="1" r:id="rId1"/>
@@ -983,9 +983,9 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2172,55 +2172,55 @@
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A104" s="24"/>
-      <c r="B104" s="24"/>
+      <c r="A104" s="22"/>
+      <c r="B104" s="22"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
-      <c r="E104" s="24"/>
-      <c r="F104" s="24"/>
+      <c r="E104" s="22"/>
+      <c r="F104" s="22"/>
       <c r="G104" s="1"/>
       <c r="R104" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A105" s="24"/>
-      <c r="B105" s="24"/>
-      <c r="E105" s="24"/>
-      <c r="F105" s="24"/>
+      <c r="A105" s="22"/>
+      <c r="B105" s="22"/>
+      <c r="E105" s="22"/>
+      <c r="F105" s="22"/>
       <c r="R105" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A106" s="24"/>
-      <c r="B106" s="24"/>
+      <c r="A106" s="22"/>
+      <c r="B106" s="22"/>
       <c r="C106" s="1"/>
-      <c r="E106" s="24"/>
-      <c r="F106" s="24"/>
+      <c r="E106" s="22"/>
+      <c r="F106" s="22"/>
       <c r="G106" s="1"/>
       <c r="R106" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A107" s="24"/>
-      <c r="B107" s="24"/>
+      <c r="A107" s="22"/>
+      <c r="B107" s="22"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
-      <c r="E107" s="24"/>
-      <c r="F107" s="24"/>
+      <c r="E107" s="22"/>
+      <c r="F107" s="22"/>
       <c r="R107" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A108" s="24"/>
-      <c r="B108" s="24"/>
+      <c r="A108" s="22"/>
+      <c r="B108" s="22"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
-      <c r="E108" s="24"/>
-      <c r="F108" s="24"/>
+      <c r="E108" s="22"/>
+      <c r="F108" s="22"/>
       <c r="G108" s="1"/>
       <c r="R108" t="s">
         <v>127</v>
@@ -3181,7 +3181,7 @@
       <c r="D177" s="21"/>
       <c r="E177" s="21"/>
       <c r="F177" s="21"/>
-      <c r="G177" s="22"/>
+      <c r="G177" s="24"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="21"/>
@@ -3190,7 +3190,7 @@
       <c r="D178" s="21"/>
       <c r="E178" s="21"/>
       <c r="F178" s="21"/>
-      <c r="G178" s="22"/>
+      <c r="G178" s="24"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="21"/>
@@ -3323,109 +3323,177 @@
     <sortCondition ref="A25:A53"/>
   </sortState>
   <mergeCells count="298">
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="E129:E130"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="D135:D136"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="F133:F134"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="E139:E140"/>
-    <mergeCell ref="F139:F140"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="F137:F138"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="D147:D148"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="F147:F148"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="G189:G190"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="D191:D192"/>
+    <mergeCell ref="E191:E192"/>
+    <mergeCell ref="F191:F192"/>
+    <mergeCell ref="G191:G192"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="D189:D190"/>
+    <mergeCell ref="E189:E190"/>
+    <mergeCell ref="F189:F190"/>
+    <mergeCell ref="G185:G186"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="D187:D188"/>
+    <mergeCell ref="E187:E188"/>
+    <mergeCell ref="F187:F188"/>
+    <mergeCell ref="G187:G188"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="C185:C186"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="E185:E186"/>
+    <mergeCell ref="F185:F186"/>
+    <mergeCell ref="G181:G182"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="D183:D184"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="F183:F184"/>
+    <mergeCell ref="G183:G184"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="C181:C182"/>
+    <mergeCell ref="D181:D182"/>
+    <mergeCell ref="E181:E182"/>
+    <mergeCell ref="F181:F182"/>
+    <mergeCell ref="G177:G178"/>
+    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="D179:D180"/>
+    <mergeCell ref="E179:E180"/>
+    <mergeCell ref="F179:F180"/>
+    <mergeCell ref="G179:G180"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="C177:C178"/>
+    <mergeCell ref="D177:D178"/>
+    <mergeCell ref="E177:E178"/>
+    <mergeCell ref="F177:F178"/>
+    <mergeCell ref="G173:G174"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="C175:C176"/>
+    <mergeCell ref="D175:D176"/>
+    <mergeCell ref="E175:E176"/>
+    <mergeCell ref="F175:F176"/>
+    <mergeCell ref="G175:G176"/>
+    <mergeCell ref="A173:A174"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="G169:G170"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="E171:E172"/>
+    <mergeCell ref="F171:F172"/>
+    <mergeCell ref="G171:G172"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="E169:E170"/>
+    <mergeCell ref="F169:F170"/>
+    <mergeCell ref="G165:G166"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="D167:D168"/>
+    <mergeCell ref="E167:E168"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="G167:G168"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="D165:D166"/>
+    <mergeCell ref="E165:E166"/>
+    <mergeCell ref="F165:F166"/>
+    <mergeCell ref="G161:G162"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="E163:E164"/>
+    <mergeCell ref="F163:F164"/>
+    <mergeCell ref="G163:G164"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="D161:D162"/>
+    <mergeCell ref="E161:E162"/>
+    <mergeCell ref="F161:F162"/>
+    <mergeCell ref="G157:G158"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="D159:D160"/>
+    <mergeCell ref="E159:E160"/>
+    <mergeCell ref="F159:F160"/>
+    <mergeCell ref="G159:G160"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="E157:E158"/>
+    <mergeCell ref="F157:F158"/>
+    <mergeCell ref="F153:F154"/>
+    <mergeCell ref="G153:G154"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="D155:D156"/>
+    <mergeCell ref="E155:E156"/>
+    <mergeCell ref="F155:F156"/>
+    <mergeCell ref="G155:G156"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="G147:G148"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="G151:G152"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="D153:D154"/>
+    <mergeCell ref="E153:E154"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="G137:G138"/>
+    <mergeCell ref="G139:G140"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="G129:G130"/>
     <mergeCell ref="A104:A108"/>
     <mergeCell ref="B104:B108"/>
     <mergeCell ref="E104:E108"/>
@@ -3450,177 +3518,109 @@
     <mergeCell ref="A111:A112"/>
     <mergeCell ref="B111:B112"/>
     <mergeCell ref="C111:C112"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="G135:G136"/>
-    <mergeCell ref="G137:G138"/>
-    <mergeCell ref="G139:G140"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="G125:G126"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="G147:G148"/>
-    <mergeCell ref="G149:G150"/>
-    <mergeCell ref="G151:G152"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="D153:D154"/>
-    <mergeCell ref="E153:E154"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="D149:D150"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="F153:F154"/>
-    <mergeCell ref="G153:G154"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="D155:D156"/>
-    <mergeCell ref="E155:E156"/>
-    <mergeCell ref="F155:F156"/>
-    <mergeCell ref="G155:G156"/>
-    <mergeCell ref="G157:G158"/>
-    <mergeCell ref="A159:A160"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="D159:D160"/>
-    <mergeCell ref="E159:E160"/>
-    <mergeCell ref="F159:F160"/>
-    <mergeCell ref="G159:G160"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="E157:E158"/>
-    <mergeCell ref="F157:F158"/>
-    <mergeCell ref="G161:G162"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="E163:E164"/>
-    <mergeCell ref="F163:F164"/>
-    <mergeCell ref="G163:G164"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="D161:D162"/>
-    <mergeCell ref="E161:E162"/>
-    <mergeCell ref="F161:F162"/>
-    <mergeCell ref="G165:G166"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="D167:D168"/>
-    <mergeCell ref="E167:E168"/>
-    <mergeCell ref="F167:F168"/>
-    <mergeCell ref="G167:G168"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="C165:C166"/>
-    <mergeCell ref="D165:D166"/>
-    <mergeCell ref="E165:E166"/>
-    <mergeCell ref="F165:F166"/>
-    <mergeCell ref="G169:G170"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="B171:B172"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="D171:D172"/>
-    <mergeCell ref="E171:E172"/>
-    <mergeCell ref="F171:F172"/>
-    <mergeCell ref="G171:G172"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="D169:D170"/>
-    <mergeCell ref="E169:E170"/>
-    <mergeCell ref="F169:F170"/>
-    <mergeCell ref="G173:G174"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="C175:C176"/>
-    <mergeCell ref="D175:D176"/>
-    <mergeCell ref="E175:E176"/>
-    <mergeCell ref="F175:F176"/>
-    <mergeCell ref="G175:G176"/>
-    <mergeCell ref="A173:A174"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="C173:C174"/>
-    <mergeCell ref="D173:D174"/>
-    <mergeCell ref="E173:E174"/>
-    <mergeCell ref="F173:F174"/>
-    <mergeCell ref="G177:G178"/>
-    <mergeCell ref="A179:A180"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="C179:C180"/>
-    <mergeCell ref="D179:D180"/>
-    <mergeCell ref="E179:E180"/>
-    <mergeCell ref="F179:F180"/>
-    <mergeCell ref="G179:G180"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="C177:C178"/>
-    <mergeCell ref="D177:D178"/>
-    <mergeCell ref="E177:E178"/>
-    <mergeCell ref="F177:F178"/>
-    <mergeCell ref="G181:G182"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="D183:D184"/>
-    <mergeCell ref="E183:E184"/>
-    <mergeCell ref="F183:F184"/>
-    <mergeCell ref="G183:G184"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="C181:C182"/>
-    <mergeCell ref="D181:D182"/>
-    <mergeCell ref="E181:E182"/>
-    <mergeCell ref="F181:F182"/>
-    <mergeCell ref="G185:G186"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="C187:C188"/>
-    <mergeCell ref="D187:D188"/>
-    <mergeCell ref="E187:E188"/>
-    <mergeCell ref="F187:F188"/>
-    <mergeCell ref="G187:G188"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="C185:C186"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="E185:E186"/>
-    <mergeCell ref="F185:F186"/>
-    <mergeCell ref="G189:G190"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="C191:C192"/>
-    <mergeCell ref="D191:D192"/>
-    <mergeCell ref="E191:E192"/>
-    <mergeCell ref="F191:F192"/>
-    <mergeCell ref="G191:G192"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="D189:D190"/>
-    <mergeCell ref="E189:E190"/>
-    <mergeCell ref="F189:F190"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="F139:F140"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="F137:F138"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="D135:D136"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="F133:F134"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4845,8 +4845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602F6835-4A1E-8444-A04C-457833FC4626}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5188,8 +5188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DE1511-DAA2-A04B-9BBF-605E5C0107B3}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
